--- a/bus-math-nextjs/public/resources/unit01-lesson04-exit-ticket.xlsx
+++ b/bus-math-nextjs/public/resources/unit01-lesson04-exit-ticket.xlsx
@@ -411,7 +411,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -481,7 +480,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What is the purpose of the SUMIF function?</t>
+          <t>Why keep an EmployeeList sheet separate from the GrossPayRegister?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,27 +490,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Summarize values that meet a single condition</t>
+          <t>It serves as the master table for XLOOKUP so you only edit data once</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Return the row number of a match</t>
+          <t>It automatically sends pay stubs</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Create a pivot table automatically</t>
+          <t>It stores tax tables</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Format cells with colors</t>
+          <t>It eliminates the need for schedules</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Protect a worksheet</t>
+          <t/>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -524,17 +523,21 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>SUMIF adds numbers that match a given criterion.</t>
+          <t>One source table keeps every lookup accurate and reduces copy/paste errors.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Which is a key benefit of Excel Tables for analysis?</t>
+          <t>Which XLOOKUP argument controls the column that returns to the register?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,27 +547,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Structured references and automatic range expansion</t>
+          <t>Return array</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Guaranteed error-free models</t>
+          <t>Lookup value</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Automatic investor reports</t>
+          <t>If not found</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eliminates the need for headings</t>
+          <t>Match mode</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Randomly sorts data</t>
+          <t/>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -577,17 +580,21 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Tables keep ranges dynamic and references clear.</t>
+          <t>The return array tells Excel which EmployeeList column to bring back.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Select examples of valid SUMIF criteria</t>
+          <t>Select components that belong in the additive gross pay formula.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,27 +604,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Text match like "Consulting"</t>
+          <t>Hourly block: (Regular*Rate)+(Overtime*Rate*1.5)+Tips</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Date criteria like "&gt;=2024-01-01"</t>
+          <t>Salary block: IF(PayPeriods&gt;0,Annual/PayPeriods,0)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Number criteria like "&gt;100"</t>
+          <t>Commission block: (Sales*%) + Draw</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Change font to bold</t>
+          <t>Apply cell merge for layout</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Merge cells for layout</t>
+          <t>Use Comic Sans for emphasis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,17 +637,21 @@
           <t>45</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Criteria test each row for inclusion.</t>
+          <t>Each pay type contributes its own math; unused paths should equal zero.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fill in the blank: In Tables, formulas can use ____ to refer to columns.</t>
+          <t>Fill in the blank: A pivot table organizes total gross pay by ____ so Sarah can spot expensive departments quickly.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -650,34 +661,54 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>structured references</t>
+          <t>department</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Table[Column]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Accept structured references such as Table[Column].</t>
+          <t>Department pivots reveal where payroll dollars accumulate.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Which practice improves reliability in a basic model?</t>
+          <t>What makes the clustered bar chart refresh automatically?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,27 +718,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Keep raw data in a table and reference it</t>
+          <t>It references the SUMIF summary block tied to the gross pay table</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Type numbers directly into formulas</t>
+          <t>It is manually redrawn each time</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Delete source data after summarizing</t>
+          <t>It’s linked to an external website</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Use merged cells for spacing</t>
+          <t>It only updates when you print</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hide columns instead of designing clearly</t>
+          <t/>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -720,17 +751,21 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Referencing a clean table reduces errors and rework.</t>
+          <t>Charts linked to table-driven summaries update whenever the underlying totals change.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>In one or two sentences, explain when you would choose SUMIF over a manual filter and copy.</t>
+          <t>In one or two sentences, explain how you would use this workbook to brief an investor on payroll mix.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,21 +773,49 @@
           <t>Open-Ended</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Look for efficiency, repeatability, and fewer copy/paste mistakes.</t>
+          <t>Look for references to the summary, chart, or pivot table to support the story.</t>
         </is>
       </c>
     </row>
